--- a/Bases_de_Dados_(2006-2021)/Portugal Liga NOS_20202021.xlsx
+++ b/Bases_de_Dados_(2006-2021)/Portugal Liga NOS_20202021.xlsx
@@ -1027,7 +1027,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -12576,7 +12576,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -15633,7 +15633,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -18685,7 +18685,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -21078,7 +21078,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -23699,7 +23699,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -25874,7 +25874,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -27623,7 +27623,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -28708,7 +28708,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -30893,7 +30893,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -32196,7 +32196,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -34812,7 +34812,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -35907,7 +35907,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I163" t="n">
@@ -38300,7 +38300,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -41793,7 +41793,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I190" t="n">
@@ -43532,7 +43532,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -44191,7 +44191,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I201" t="n">
@@ -47025,7 +47025,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I214" t="n">
@@ -48546,7 +48546,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -51385,7 +51385,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I234" t="n">
@@ -52906,7 +52906,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -54655,7 +54655,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I249" t="n">
@@ -56394,7 +56394,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -57925,7 +57925,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I264" t="n">
@@ -60536,7 +60536,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -62721,7 +62721,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I286" t="n">
@@ -65114,7 +65114,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -65773,7 +65773,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>CF Os Belenenses</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="I300" t="n">
